--- a/RencitaDay3/Output/Assignment_1/Assignment_1f.xlsx
+++ b/RencitaDay3/Output/Assignment_1/Assignment_1f.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <x:si>
     <x:t>Fname</x:t>
   </x:si>
@@ -29,6 +29,9 @@
   </x:si>
   <x:si>
     <x:t>Emp_ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Days</x:t>
   </x:si>
   <x:si>
     <x:t>Alberto</x:t>
@@ -676,7 +679,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:sheetData>
-    <x:row r="1" spans="1:3">
+    <x:row r="1" spans="1:4">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -686,599 +689,764 @@
       <x:c r="C1" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:3">
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
       <x:c r="A2" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
         <x:v>1290</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3">
+      <x:c r="D2" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
       <x:c r="A3" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
         <x:v>1395</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3">
+      <x:c r="D3" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4">
       <x:c r="A4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>6</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
         <x:v>1716</x:v>
       </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3">
+      <x:c r="D4" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
       <x:c r="A5" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
         <x:v>1818</x:v>
       </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3">
+      <x:c r="D5" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
       <x:c r="A6" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
         <x:v>1824</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:3">
+      <x:c r="D6" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
       <x:c r="A7" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
         <x:v>2193</x:v>
       </x:c>
-    </x:row>
-    <x:row r="8" spans="1:3">
+      <x:c r="D7" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
       <x:c r="A8" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C8" s="0" t="n">
         <x:v>2265</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:3">
+      <x:c r="D8" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
       <x:c r="A9" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C9" s="0" t="n">
         <x:v>2349</x:v>
       </x:c>
-    </x:row>
-    <x:row r="10" spans="1:3">
+      <x:c r="D9" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
       <x:c r="A10" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C10" s="0" t="n">
         <x:v>2367</x:v>
       </x:c>
-    </x:row>
-    <x:row r="11" spans="1:3">
+      <x:c r="D10" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
       <x:c r="A11" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C11" s="0" t="n">
         <x:v>2406</x:v>
       </x:c>
-    </x:row>
-    <x:row r="12" spans="1:3">
+      <x:c r="D11" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
       <x:c r="A12" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C12" s="0" t="n">
         <x:v>2457</x:v>
       </x:c>
-    </x:row>
-    <x:row r="13" spans="1:3">
+      <x:c r="D12" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
       <x:c r="A13" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C13" s="0" t="n">
         <x:v>2490</x:v>
       </x:c>
-    </x:row>
-    <x:row r="14" spans="1:3">
+      <x:c r="D13" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
       <x:c r="A14" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C14" s="0" t="n">
         <x:v>2496</x:v>
       </x:c>
-    </x:row>
-    <x:row r="15" spans="1:3">
+      <x:c r="D14" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
       <x:c r="A15" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C15" s="0" t="n">
         <x:v>2577</x:v>
       </x:c>
-    </x:row>
-    <x:row r="16" spans="1:3">
+      <x:c r="D15" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
       <x:c r="A16" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C16" s="0" t="n">
         <x:v>2703</x:v>
       </x:c>
-    </x:row>
-    <x:row r="17" spans="1:3">
+      <x:c r="D16" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
       <x:c r="A17" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C17" s="0" t="n">
         <x:v>2736</x:v>
       </x:c>
-    </x:row>
-    <x:row r="18" spans="1:3">
+      <x:c r="D17" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
       <x:c r="A18" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C18" s="0" t="n">
         <x:v>3471</x:v>
       </x:c>
-    </x:row>
-    <x:row r="19" spans="1:3">
+      <x:c r="D18" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
       <x:c r="A19" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C19" s="0" t="n">
         <x:v>3645</x:v>
       </x:c>
-    </x:row>
-    <x:row r="20" spans="1:3">
+      <x:c r="D19" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
       <x:c r="A20" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C20" s="0" t="n">
         <x:v>3675</x:v>
       </x:c>
-    </x:row>
-    <x:row r="21" spans="1:3">
+      <x:c r="D20" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4">
       <x:c r="A21" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C21" s="0" t="n">
         <x:v>3882</x:v>
       </x:c>
-    </x:row>
-    <x:row r="22" spans="1:3">
+      <x:c r="D21" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4">
       <x:c r="A22" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C22" s="0" t="n">
         <x:v>4032</x:v>
       </x:c>
-    </x:row>
-    <x:row r="23" spans="1:3">
+      <x:c r="D22" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
       <x:c r="A23" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
         <x:v>4179</x:v>
       </x:c>
-    </x:row>
-    <x:row r="24" spans="1:3">
+      <x:c r="D23" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
       <x:c r="A24" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
         <x:v>4620</x:v>
       </x:c>
-    </x:row>
-    <x:row r="25" spans="1:3">
+      <x:c r="D24" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4">
       <x:c r="A25" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C25" s="0" t="n">
         <x:v>4971</x:v>
       </x:c>
-    </x:row>
-    <x:row r="26" spans="1:3">
+      <x:c r="D25" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4">
       <x:c r="A26" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
         <x:v>5562</x:v>
       </x:c>
-    </x:row>
-    <x:row r="27" spans="1:3">
+      <x:c r="D26" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4">
       <x:c r="A27" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
         <x:v>5682</x:v>
       </x:c>
-    </x:row>
-    <x:row r="28" spans="1:3">
+      <x:c r="D27" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4">
       <x:c r="A28" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C28" s="0" t="n">
         <x:v>6288</x:v>
       </x:c>
-    </x:row>
-    <x:row r="29" spans="1:3">
+      <x:c r="D28" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4">
       <x:c r="A29" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C29" s="0" t="n">
         <x:v>6354</x:v>
       </x:c>
-    </x:row>
-    <x:row r="30" spans="1:3">
+      <x:c r="D29" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:4">
       <x:c r="A30" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C30" s="0" t="n">
         <x:v>6414</x:v>
       </x:c>
-    </x:row>
-    <x:row r="31" spans="1:3">
+      <x:c r="D30" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:4">
       <x:c r="A31" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C31" s="0" t="n">
         <x:v>6444</x:v>
       </x:c>
-    </x:row>
-    <x:row r="32" spans="1:3">
+      <x:c r="D31" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:4">
       <x:c r="A32" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C32" s="0" t="n">
         <x:v>6549</x:v>
       </x:c>
-    </x:row>
-    <x:row r="33" spans="1:3">
+      <x:c r="D32" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:4">
       <x:c r="A33" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C33" s="0" t="n">
         <x:v>6636</x:v>
       </x:c>
-    </x:row>
-    <x:row r="34" spans="1:3">
+      <x:c r="D33" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:4">
       <x:c r="A34" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C34" s="0" t="n">
         <x:v>6642</x:v>
       </x:c>
-    </x:row>
-    <x:row r="35" spans="1:3">
+      <x:c r="D34" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:4">
       <x:c r="A35" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C35" s="0" t="n">
         <x:v>6693</x:v>
       </x:c>
-    </x:row>
-    <x:row r="36" spans="1:3">
+      <x:c r="D35" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:4">
       <x:c r="A36" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C36" s="0" t="n">
         <x:v>6735</x:v>
       </x:c>
-    </x:row>
-    <x:row r="37" spans="1:3">
+      <x:c r="D36" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:4">
       <x:c r="A37" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C37" s="0" t="n">
         <x:v>6741</x:v>
       </x:c>
-    </x:row>
-    <x:row r="38" spans="1:3">
+      <x:c r="D37" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:4">
       <x:c r="A38" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C38" s="0" t="n">
         <x:v>6774</x:v>
       </x:c>
-    </x:row>
-    <x:row r="39" spans="1:3">
+      <x:c r="D38" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:4">
       <x:c r="A39" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C39" s="0" t="n">
         <x:v>6852</x:v>
       </x:c>
-    </x:row>
-    <x:row r="40" spans="1:3">
+      <x:c r="D39" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:4">
       <x:c r="A40" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C40" s="0" t="n">
         <x:v>7008</x:v>
       </x:c>
-    </x:row>
-    <x:row r="41" spans="1:3">
+      <x:c r="D40" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:4">
       <x:c r="A41" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C41" s="0" t="n">
         <x:v>7137</x:v>
       </x:c>
-    </x:row>
-    <x:row r="42" spans="1:3">
+      <x:c r="D41" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:4">
       <x:c r="A42" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C42" s="0" t="n">
         <x:v>7284</x:v>
       </x:c>
-    </x:row>
-    <x:row r="43" spans="1:3">
+      <x:c r="D42" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:4">
       <x:c r="A43" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C43" s="0" t="n">
         <x:v>7512</x:v>
       </x:c>
-    </x:row>
-    <x:row r="44" spans="1:3">
+      <x:c r="D43" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:4">
       <x:c r="A44" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C44" s="0" t="n">
         <x:v>7560</x:v>
       </x:c>
-    </x:row>
-    <x:row r="45" spans="1:3">
+      <x:c r="D44" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:4">
       <x:c r="A45" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C45" s="0" t="n">
         <x:v>7764</x:v>
       </x:c>
-    </x:row>
-    <x:row r="46" spans="1:3">
+      <x:c r="D45" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:4">
       <x:c r="A46" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C46" s="0" t="n">
         <x:v>7791</x:v>
       </x:c>
-    </x:row>
-    <x:row r="47" spans="1:3">
+      <x:c r="D46" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:4">
       <x:c r="A47" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C47" s="0" t="n">
         <x:v>7971</x:v>
       </x:c>
-    </x:row>
-    <x:row r="48" spans="1:3">
+      <x:c r="D47" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:4">
       <x:c r="A48" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C48" s="0" t="n">
         <x:v>8391</x:v>
       </x:c>
-    </x:row>
-    <x:row r="49" spans="1:3">
+      <x:c r="D48" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:4">
       <x:c r="A49" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C49" s="0" t="n">
         <x:v>8736</x:v>
       </x:c>
-    </x:row>
-    <x:row r="50" spans="1:3">
+      <x:c r="D49" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:4">
       <x:c r="A50" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C50" s="0" t="n">
         <x:v>9141</x:v>
       </x:c>
-    </x:row>
-    <x:row r="51" spans="1:3">
+      <x:c r="D50" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:4">
       <x:c r="A51" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C51" s="0" t="n">
         <x:v>9396</x:v>
       </x:c>
-    </x:row>
-    <x:row r="52" spans="1:3">
+      <x:c r="D51" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:4">
       <x:c r="A52" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C52" s="0" t="n">
         <x:v>9492</x:v>
       </x:c>
-    </x:row>
-    <x:row r="53" spans="1:3">
+      <x:c r="D52" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:4">
       <x:c r="A53" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C53" s="0" t="n">
         <x:v>9501</x:v>
       </x:c>
-    </x:row>
-    <x:row r="54" spans="1:3">
+      <x:c r="D53" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:4">
       <x:c r="A54" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C54" s="0" t="n">
         <x:v>9618</x:v>
       </x:c>
-    </x:row>
-    <x:row r="55" spans="1:3">
+      <x:c r="D54" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:4">
       <x:c r="A55" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C55" s="0" t="n">
         <x:v>9648</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="n">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
